--- a/UTM Machine Technical Specification/UTM Specification.xlsx
+++ b/UTM Machine Technical Specification/UTM Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -502,35 +502,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,16 +814,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="80.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -834,40 +834,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" ht="30">
+      <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="46.8">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:11" ht="47.25">
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.2">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:11" ht="31.5">
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -881,8 +881,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31.2">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:11" ht="31.5">
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
@@ -902,8 +902,8 @@
         <v>69.247663840636761</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31.2">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:11" ht="31.5">
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
@@ -920,29 +920,29 @@
         <v>0.48694783520208834</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="7">
         <v>0.2248</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:11" ht="31.5">
+      <c r="A12" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -951,233 +951,233 @@
       <c r="C12">
         <v>20</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="7">
         <f>D11*20</f>
         <v>4.4960000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13">
         <v>600</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="7">
         <f>D11*600</f>
         <v>134.88</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="31.2">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:11" ht="31.5">
+      <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="31.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:2" ht="31.5">
+      <c r="A18" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="31.2">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:2" ht="31.5">
+      <c r="A19" s="14"/>
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="14"/>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="31.2">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:2" ht="31.5">
+      <c r="A21" s="14"/>
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="31.2">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:2" ht="31.5">
+      <c r="A22" s="14"/>
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="14"/>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.2">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:2" ht="31.5">
+      <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="14"/>
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="14"/>
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="62.4">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:2" ht="63">
+      <c r="A28" s="14"/>
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="46.8">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:2" ht="47.25">
+      <c r="A29" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="31.2">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:2" ht="31.5">
+      <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="62.4">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:2" ht="63">
+      <c r="A32" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:2" ht="15.75">
+      <c r="A33" s="12"/>
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="46.8">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:2" ht="47.25">
+      <c r="A34" s="12"/>
       <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="31.2">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:2" ht="31.5">
+      <c r="A35" s="12"/>
       <c r="B35" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="78">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:2" ht="78.75">
+      <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="31.2">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:2" ht="31.5">
+      <c r="A38" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="31.2">
-      <c r="A39" s="8"/>
+    <row r="39" spans="1:2" ht="31.5">
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="46.8">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:2" ht="47.25">
+      <c r="A40" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="62.4">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:2" ht="63">
+      <c r="A41" s="12"/>
       <c r="B41" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="31.2">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:2" ht="31.5">
+      <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="46.8" customHeight="1">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:2" ht="46.9" customHeight="1">
+      <c r="A43" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:2" ht="15.75">
+      <c r="A44" s="12"/>
       <c r="B44" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="62.4">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:2" ht="63">
+      <c r="A45" s="13"/>
       <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="62.4">
+    <row r="46" spans="1:2" ht="63">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -1186,14 +1186,14 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="24.6" customHeight="1">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="37.200000000000003" customHeight="1">
+    <row r="48" spans="1:2" ht="37.15" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="31.2">
+    <row r="49" spans="1:2" ht="31.5">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
